--- a/Messaging/SIAM_pop.xlsx
+++ b/Messaging/SIAM_pop.xlsx
@@ -19,7 +19,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J11" authorId="0">
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Organization</t>
   </si>
@@ -91,6 +91,12 @@
     <t>personLastName</t>
   </si>
   <si>
+    <t>ExcelImporter</t>
+  </si>
+  <si>
+    <t>ExecEngineer</t>
+  </si>
+  <si>
     <t>Ad</t>
   </si>
   <si>
@@ -151,6 +157,15 @@
     <t>accOrg</t>
   </si>
   <si>
+    <t>Jorrit</t>
+  </si>
+  <si>
+    <t>de Boer</t>
+  </si>
+  <si>
+    <t>deboer</t>
+  </si>
+  <si>
     <t>adm</t>
   </si>
   <si>
@@ -160,10 +175,19 @@
     <t>michiels</t>
   </si>
   <si>
+    <t>jorritdb</t>
+  </si>
+  <si>
     <t>oosten</t>
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Stef</t>
   </si>
 </sst>
 </file>
@@ -584,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +628,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -644,10 +668,10 @@
         <v>Ad Minderbrood</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -656,10 +680,10 @@
         <v>Rieks Joosten</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -668,225 +692,315 @@
         <v>Michiel Stornebrink</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="str">
         <f>IF($B6="","",CONCATENATE($B6," ",$C6))</f>
+        <v>Jorrit de Boer</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="str">
+        <f>IF($B7="","",CONCATENATE($B7," ",$C7))</f>
+        <v>Stef Joosten</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="str">
+        <f>IF($B8="","",CONCATENATE($B8," ",$C8))</f>
+        <v>Han Joosten</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="str">
+        <f>IF($B11="","",$B11)</f>
+        <v>TNO</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="str">
+        <f>IF($B12="","",$B12)</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="6" t="str">
+        <f>IF((ROWS($J$15:$J$18)-COUNTBLANK($J$15:$J$18))=0,"","autoLoginAccount")</f>
+        <v/>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="str">
-        <f>IF($B9="","",$B9)</f>
-        <v>TNO</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="str">
-        <f>IF($B10="","",$B10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="6" t="str">
-        <f>IF((ROWS($J$13:$J$15)-COUNTBLANK($J$13:$J$15))=0,"","autoLoginAccount")</f>
-        <v/>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>$A14</f>
+        <v>Account</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f>$A12</f>
-        <v>Account</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f t="shared" ref="A13:A15" si="1">IF($B13="","",CONCATENATE("Acc_",$B13))</f>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f t="shared" ref="A15:A18" si="1">IF($B15="","",CONCATENATE("Acc_",$B15))</f>
         <v>Acc_adm</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7" t="str">
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="str">
         <f>$A3</f>
         <v>Ad Minderbrood</v>
       </c>
-      <c r="E13" s="7" t="str">
-        <f>$A$9</f>
+      <c r="E15" s="7" t="str">
+        <f>$A$11</f>
         <v>TNO</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" t="str">
-        <f>$A13</f>
-        <v>Acc_adm</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Acc_rieksj</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f>$A4</f>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f t="shared" ref="D16" si="2">$A4</f>
         <v>Rieks Joosten</v>
       </c>
-      <c r="E14" s="7" t="str">
-        <f t="shared" ref="E14:E15" si="2">$A$9</f>
+      <c r="E16" s="7" t="str">
+        <f t="shared" ref="E16:E20" si="3">$A$11</f>
         <v>TNO</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
+      <c r="J16" s="7"/>
+      <c r="K16" t="str">
+        <f>$A16</f>
+        <v>Acc_rieksj</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Acc_michiels</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="str">
-        <f t="shared" ref="D15" si="3">$A5</f>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f t="shared" ref="D17" si="4">$A5</f>
         <v>Michiel Stornebrink</v>
       </c>
-      <c r="E15" s="7" t="str">
-        <f t="shared" si="2"/>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>TNO</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Acc_jorritdb</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f>$A6</f>
+        <v>Jorrit de Boer</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>TNO</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>IF($B19="","",CONCATENATE("Acc_",$B19))</f>
+        <v/>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f t="shared" ref="D19:D20" si="5">$A7</f>
+        <v>Stef Joosten</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>IF($B20="","",CONCATENATE("Acc_",$B20))</f>
+        <v/>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>Han Joosten</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
